--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H2">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I2">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J2">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1030763333333333</v>
+        <v>0.06163433333333333</v>
       </c>
       <c r="N2">
-        <v>0.309229</v>
+        <v>0.184903</v>
       </c>
       <c r="O2">
-        <v>0.01126512502660735</v>
+        <v>0.006690894379667537</v>
       </c>
       <c r="P2">
-        <v>0.01126512502660735</v>
+        <v>0.006690894379667537</v>
       </c>
       <c r="Q2">
-        <v>1.244133679730222</v>
+        <v>0.00830748634222222</v>
       </c>
       <c r="R2">
-        <v>11.197203117572</v>
+        <v>0.07476737707999999</v>
       </c>
       <c r="S2">
-        <v>0.008563728179023053</v>
+        <v>0.0002287646954730008</v>
       </c>
       <c r="T2">
-        <v>0.008563728179023055</v>
+        <v>0.0002287646954730008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H3">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I3">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J3">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.046962666666667</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N3">
-        <v>27.140888</v>
+        <v>0.309229</v>
       </c>
       <c r="O3">
-        <v>0.9887348749733926</v>
+        <v>0.01118975126488057</v>
       </c>
       <c r="P3">
-        <v>0.9887348749733927</v>
+        <v>0.01118975126488057</v>
       </c>
       <c r="Q3">
-        <v>109.1970444511538</v>
+        <v>0.01389331538222222</v>
       </c>
       <c r="R3">
-        <v>982.7734000603838</v>
+        <v>0.12503983844</v>
       </c>
       <c r="S3">
-        <v>0.7516345083071402</v>
+        <v>0.000382582640716595</v>
       </c>
       <c r="T3">
-        <v>0.7516345083071404</v>
+        <v>0.0003825826407165949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.308268</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H4">
-        <v>3.924804</v>
+        <v>0.40436</v>
       </c>
       <c r="I4">
-        <v>0.08239777620284613</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J4">
-        <v>0.08239777620284613</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1030763333333333</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="N4">
-        <v>0.309229</v>
+        <v>27.140888</v>
       </c>
       <c r="O4">
-        <v>0.01126512502660735</v>
+        <v>0.9821193543554519</v>
       </c>
       <c r="P4">
-        <v>0.01126512502660735</v>
+        <v>0.9821193543554518</v>
       </c>
       <c r="Q4">
-        <v>0.1348514684573333</v>
+        <v>1.219409941297778</v>
       </c>
       <c r="R4">
-        <v>1.213663216116</v>
+        <v>10.97468947168</v>
       </c>
       <c r="S4">
-        <v>0.0009282212508394738</v>
+        <v>0.03357910352015285</v>
       </c>
       <c r="T4">
-        <v>0.0009282212508394739</v>
+        <v>0.03357910352015284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>9.046962666666667</v>
+        <v>0.06163433333333333</v>
       </c>
       <c r="N5">
-        <v>27.140888</v>
+        <v>0.184903</v>
       </c>
       <c r="O5">
-        <v>0.9887348749733926</v>
+        <v>0.006690894379667537</v>
       </c>
       <c r="P5">
-        <v>0.9887348749733927</v>
+        <v>0.006690894379667537</v>
       </c>
       <c r="Q5">
-        <v>11.83585175399467</v>
+        <v>0.08063422600133333</v>
       </c>
       <c r="R5">
-        <v>106.522665785952</v>
+        <v>0.7257080340119999</v>
       </c>
       <c r="S5">
-        <v>0.08146955495200665</v>
+        <v>0.002220438697821781</v>
       </c>
       <c r="T5">
-        <v>0.08146955495200667</v>
+        <v>0.002220438697821781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.499176666666667</v>
+        <v>1.308268</v>
       </c>
       <c r="H6">
-        <v>7.49753</v>
+        <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.1574039873109905</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J6">
-        <v>0.1574039873109906</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>0.309229</v>
       </c>
       <c r="O6">
-        <v>0.01126512502660735</v>
+        <v>0.01118975126488057</v>
       </c>
       <c r="P6">
-        <v>0.01126512502660735</v>
+        <v>0.01118975126488057</v>
       </c>
       <c r="Q6">
-        <v>0.2576059671522222</v>
+        <v>0.1348514684573333</v>
       </c>
       <c r="R6">
-        <v>2.31845370437</v>
+        <v>1.213663216116</v>
       </c>
       <c r="S6">
-        <v>0.001773175596744826</v>
+        <v>0.003713428327764998</v>
       </c>
       <c r="T6">
-        <v>0.001773175596744826</v>
+        <v>0.003713428327764998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.499176666666667</v>
+        <v>1.308268</v>
       </c>
       <c r="H7">
-        <v>7.49753</v>
+        <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.1574039873109905</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J7">
-        <v>0.1574039873109906</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>27.140888</v>
       </c>
       <c r="O7">
-        <v>0.9887348749733926</v>
+        <v>0.9821193543554519</v>
       </c>
       <c r="P7">
-        <v>0.9887348749733927</v>
+        <v>0.9821193543554518</v>
       </c>
       <c r="Q7">
+        <v>11.83585175399467</v>
+      </c>
+      <c r="R7">
+        <v>106.522665785952</v>
+      </c>
+      <c r="S7">
+        <v>0.3259259071429172</v>
+      </c>
+      <c r="T7">
+        <v>0.3259259071429171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.499176666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.49753</v>
+      </c>
+      <c r="I8">
+        <v>0.6339497749751537</v>
+      </c>
+      <c r="J8">
+        <v>0.6339497749751537</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06163433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.184903</v>
+      </c>
+      <c r="O8">
+        <v>0.006690894379667537</v>
+      </c>
+      <c r="P8">
+        <v>0.006690894379667537</v>
+      </c>
+      <c r="Q8">
+        <v>0.1540350877322222</v>
+      </c>
+      <c r="R8">
+        <v>1.38631578959</v>
+      </c>
+      <c r="S8">
+        <v>0.004241690986372755</v>
+      </c>
+      <c r="T8">
+        <v>0.004241690986372755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.499176666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.49753</v>
+      </c>
+      <c r="I9">
+        <v>0.6339497749751537</v>
+      </c>
+      <c r="J9">
+        <v>0.6339497749751537</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1030763333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.309229</v>
+      </c>
+      <c r="O9">
+        <v>0.01118975126488057</v>
+      </c>
+      <c r="P9">
+        <v>0.01118975126488057</v>
+      </c>
+      <c r="Q9">
+        <v>0.2576059671522222</v>
+      </c>
+      <c r="R9">
+        <v>2.31845370437</v>
+      </c>
+      <c r="S9">
+        <v>0.007093740296398981</v>
+      </c>
+      <c r="T9">
+        <v>0.007093740296398981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.499176666666667</v>
+      </c>
+      <c r="H10">
+        <v>7.49753</v>
+      </c>
+      <c r="I10">
+        <v>0.6339497749751537</v>
+      </c>
+      <c r="J10">
+        <v>0.6339497749751537</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.046962666666667</v>
+      </c>
+      <c r="N10">
+        <v>27.140888</v>
+      </c>
+      <c r="O10">
+        <v>0.9821193543554519</v>
+      </c>
+      <c r="P10">
+        <v>0.9821193543554518</v>
+      </c>
+      <c r="Q10">
         <v>22.60995800073778</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>203.48962200664</v>
       </c>
-      <c r="S7">
-        <v>0.1556308117142457</v>
-      </c>
-      <c r="T7">
-        <v>0.1556308117142458</v>
+      <c r="S10">
+        <v>0.622614343692382</v>
+      </c>
+      <c r="T10">
+        <v>0.6226143436923819</v>
       </c>
     </row>
   </sheetData>
